--- a/biology/Médecine/Hémianopsie/Hémianopsie.xlsx
+++ b/biology/Médecine/Hémianopsie/Hémianopsie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9mianopsie</t>
+          <t>Hémianopsie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une hémianopsie est une perte ou une diminution de la vue dans une moitié du champ visuel d'un œil ou des deux yeux.
 Dans ce dernier cas, elle peut être hétéronyme si le champ visuel concerné de chaque œil est différent, ou homonyme dans le cas contraire.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9mianopsie</t>
+          <t>Hémianopsie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Topographie de l'hémianopsie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Une hémianopsie latérale homonyme traduit une lésion rétro-chiasmatique des voies (bandelettes) optiques de l'hémisphère droit ou du gauche (AVC ischémique ou hémorragique occipital).
 Une hémianopsie bitemporale traduit une lésion du chiasma optique entraînant un trouble de la vision dans les hémichamps latéraux. Cette lésion du chiasma optique peut être due à la progression d'une tumeur qui est soit :
